--- a/pruebas3.xlsx
+++ b/pruebas3.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\Pruebas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92DC253D-1A63-4B99-9EC3-55A114A1C47C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E2AB880-7A80-4D5D-98FF-F046192116C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{24E63A9B-145A-44E4-8A98-A5AEB17179CA}"/>
+    <workbookView xWindow="3465" yWindow="3465" windowWidth="21600" windowHeight="11295" xr2:uid="{24E63A9B-145A-44E4-8A98-A5AEB17179CA}"/>
   </bookViews>
   <sheets>
     <sheet name="base2" sheetId="2" r:id="rId1"/>
     <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">base2!$A$1:$D$36</definedName>
+    <definedName name="DatosExternos_1" localSheetId="0" hidden="1">base2!$A$1:$E$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="38">
   <si>
     <t>CIUDAD</t>
   </si>
@@ -124,6 +124,42 @@
   </si>
   <si>
     <t>CELULAR SAMSUNG A55 5G 256 AZUL OSCURO 8</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>02012024</t>
+  </si>
+  <si>
+    <t>06012024</t>
+  </si>
+  <si>
+    <t>09012024</t>
+  </si>
+  <si>
+    <t>13012024</t>
+  </si>
+  <si>
+    <t>15012024</t>
+  </si>
+  <si>
+    <t>16012024</t>
+  </si>
+  <si>
+    <t>23012024</t>
+  </si>
+  <si>
+    <t>24012024</t>
+  </si>
+  <si>
+    <t>25012024</t>
+  </si>
+  <si>
+    <t>27012024</t>
+  </si>
+  <si>
+    <t>31012024</t>
   </si>
 </sst>
 </file>
@@ -159,14 +195,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -188,10 +231,11 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DatosExternos_1" connectionId="1" xr16:uid="{F0D5884C-5163-4BA7-A8A9-AA137B7C1D20}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5">
-    <queryTableFields count="4">
+  <queryTableRefresh nextId="6">
+    <queryTableFields count="5">
       <queryTableField id="1" name="CIUDAD" tableColumnId="1"/>
       <queryTableField id="2" name="PRODUCTO" tableColumnId="2"/>
+      <queryTableField id="5" dataBound="0" tableColumnId="5"/>
       <queryTableField id="3" name="SCORE_RECOMENDACION" tableColumnId="3"/>
       <queryTableField id="4" name="CANTIDAD_PREDICHA" tableColumnId="4"/>
     </queryTableFields>
@@ -200,10 +244,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7497E56A-AE5C-447E-8D5A-588D96ABDD02}" name="base2" displayName="base2" ref="A1:D36" tableType="queryTable" totalsRowShown="0">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A0D99C0E-E0A8-4466-991C-EA600012BFDC}" uniqueName="1" name="CIUDAD" queryTableFieldId="1" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{084DD661-1FE0-400E-B6D1-33BEA376879B}" uniqueName="2" name="PRODUCTO" queryTableFieldId="2" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7497E56A-AE5C-447E-8D5A-588D96ABDD02}" name="base2" displayName="base2" ref="A1:E36" tableType="queryTable" totalsRowShown="0">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{A0D99C0E-E0A8-4466-991C-EA600012BFDC}" uniqueName="1" name="CIUDAD" queryTableFieldId="1" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{084DD661-1FE0-400E-B6D1-33BEA376879B}" uniqueName="2" name="PRODUCTO" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{DF579BE9-B9FF-4CF5-B805-2F5C4048DC21}" uniqueName="5" name="FECHA" queryTableFieldId="5" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B98B034C-C9A0-42FB-9C38-0843D1C4FF59}" uniqueName="3" name="SCORE_RECOMENDACION" queryTableFieldId="3"/>
     <tableColumn id="4" xr3:uid="{1FA6575D-96DB-48BF-9253-1B0231D5B3AE}" uniqueName="4" name="CANTIDAD_PREDICHA" queryTableFieldId="4"/>
   </tableColumns>
@@ -508,21 +553,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65D6460A-49EB-4C8E-9C93-6AA869F177E6}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -530,499 +576,607 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2">
         <v>1961801538399793</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3">
         <v>1.8533315548336556E+16</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4">
         <v>1.8413972620210052E+16</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5">
         <v>1.6726275855048442E+16</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6">
         <v>1654030125013961</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7">
         <v>4.5583310444471784E+16</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8">
         <v>4405969408421396</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9">
         <v>4164521188620649</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10">
         <v>3555339118417313</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11">
         <v>346301097865538</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12">
         <v>7088394447152976</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13">
         <v>6916960130867915</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14">
         <v>5931913301791341</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
         <v>5803555891063507</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16">
         <v>5.2456738116898952E+16</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17">
         <v>6661722382738533</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18">
         <v>5816846507185876</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19">
         <v>5604672546940524</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20">
         <v>5167956042445607</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
         <v>5073810897979268</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22">
         <v>1208327318915087</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
         <v>1.1215776111567262E+16</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24">
         <v>1.0153113291947248E+16</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25">
         <v>1.0076671471209422E+16</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
         <v>9806925761308700</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27">
         <v>6036757227496529</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28">
         <v>550365908454287</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29">
         <v>5189384864353145</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30">
         <v>5140950845900403</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D31">
         <v>4143873813165525</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32">
         <v>5.679698585200168E+16</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33">
         <v>4376235841287809</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
         <v>4267784018050475</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35">
         <v>4071534071430736</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36">
         <v>3946421836325869</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>4</v>
       </c>
     </row>
